--- a/pred_ohlcv/54_21/2020-01-23 GXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 GXC ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>-11824.29020000001</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-11794.49700000001</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-11794.49700000001</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-11794.49700000001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-15298.14000000001</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-15484.36220000001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-16468.55630000001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-17308.55630000001</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-17308.55630000001</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-17204.0567</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-17911.3622</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-21629.6483</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-21476.0612</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-21475.0612</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-21411.3621</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-21411.3621</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-20967.708</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-19505.4574</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-19505.4574</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-19619.4574</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-19467.081</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-38377.15875852</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-41585.14195852</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-43034.64985852</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-42734.53155852</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-49233.78595851999</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-49020.63615851999</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-51182.63635851999</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-69918.42755851999</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-68776.40525851998</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-68129.85135851998</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-57429.04145851998</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-57163.05335851998</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-23 GXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 GXC ohlcv.xlsx
@@ -626,7 +626,7 @@
         <v>-11794.49700000001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-11794.49700000001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-11794.49700000001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-15298.14000000001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-15484.36220000001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-16468.55630000001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-17308.55630000001</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-16895.64520000001</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-17204.0567</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-21629.6483</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-21476.0612</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-21475.0612</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-21411.3621</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-21411.3621</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-20967.708</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-19505.4574</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-19505.4574</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-19619.4574</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-19467.081</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-38377.15875852</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-41585.14195852</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-43034.64985852</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-42734.53155852</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-49233.78595851999</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-49020.63615851999</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-51182.63635851999</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-69918.42755851999</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-69918.42755851999</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-68776.40525851998</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-68129.85135851998</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-57429.04145851998</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
